--- a/Entregaveis/Entrega_1_RepositorioSemantico/Terminologias/OBM/OBM_HÓRUS.xlsx
+++ b/Entregaveis/Entrega_1_RepositorioSemantico/Terminologias/OBM/OBM_HÓRUS.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14422" uniqueCount="4878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14424" uniqueCount="4880">
   <si>
     <t>VMP</t>
   </si>
@@ -14661,6 +14661,12 @@
   </si>
   <si>
     <t xml:space="preserve">Legenda: </t>
+  </si>
+  <si>
+    <t>adapaleno</t>
+  </si>
+  <si>
+    <t>enrofloxacino</t>
   </si>
 </sst>
 </file>
@@ -15187,6 +15193,9 @@
       <c r="F8" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="H8" t="s">
+        <v>4878</v>
+      </c>
       <c r="O8" s="5" t="s">
         <v>12</v>
       </c>
@@ -15198,6 +15207,9 @@
       <c r="F9" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="H9" t="s">
+        <v>4879</v>
+      </c>
       <c r="O9" s="5" t="s">
         <v>4816</v>
       </c>
@@ -16404,7 +16416,7 @@
         <v>4824</v>
       </c>
     </row>
-    <row r="119" spans="6:20" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="119" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F119" s="5" t="s">
         <v>123</v>
       </c>
@@ -17768,7 +17780,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="243" spans="6:20" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="243" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F243" s="5" t="s">
         <v>247</v>
       </c>
@@ -19143,7 +19155,7 @@
         <v>4826</v>
       </c>
     </row>
-    <row r="368" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="368" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F368" s="5" t="s">
         <v>372</v>
       </c>
@@ -19506,7 +19518,7 @@
         <v>4826</v>
       </c>
     </row>
-    <row r="401" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="401" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F401" s="5" t="s">
         <v>405</v>
       </c>
@@ -20639,7 +20651,7 @@
         <v>4824</v>
       </c>
     </row>
-    <row r="504" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="504" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F504" s="5" t="s">
         <v>508</v>
       </c>
@@ -22113,7 +22125,7 @@
         <v>4824</v>
       </c>
     </row>
-    <row r="638" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="638" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F638" s="5" t="s">
         <v>642</v>
       </c>
@@ -22190,7 +22202,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="645" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="645" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F645" s="5" t="s">
         <v>649</v>
       </c>
@@ -22201,7 +22213,7 @@
         <v>4836</v>
       </c>
     </row>
-    <row r="646" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="646" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F646" s="5" t="s">
         <v>650</v>
       </c>
@@ -22212,7 +22224,7 @@
         <v>4824</v>
       </c>
     </row>
-    <row r="647" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="647" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F647" s="5" t="s">
         <v>651</v>
       </c>
@@ -22630,7 +22642,7 @@
         <v>4826</v>
       </c>
     </row>
-    <row r="685" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="685" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F685" s="5" t="s">
         <v>689</v>
       </c>
@@ -24192,7 +24204,7 @@
         <v>4849</v>
       </c>
     </row>
-    <row r="827" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="827" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F827" s="5" t="s">
         <v>831</v>
       </c>
@@ -25985,7 +25997,7 @@
         <v>4826</v>
       </c>
     </row>
-    <row r="990" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="990" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F990" s="5" t="s">
         <v>994</v>
       </c>
@@ -26249,7 +26261,7 @@
         <v>4823</v>
       </c>
     </row>
-    <row r="1014" spans="6:20" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="1014" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F1014" s="5" t="s">
         <v>1018</v>
       </c>
@@ -27195,7 +27207,7 @@
         <v>4828</v>
       </c>
     </row>
-    <row r="1100" spans="6:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="1100" spans="6:20" ht="38.4" x14ac:dyDescent="0.3">
       <c r="F1100" s="5" t="s">
         <v>1104</v>
       </c>
@@ -28361,7 +28373,7 @@
         <v>4826</v>
       </c>
     </row>
-    <row r="1206" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="1206" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F1206" s="5" t="s">
         <v>1210</v>
       </c>
@@ -30154,7 +30166,7 @@
         <v>4860</v>
       </c>
     </row>
-    <row r="1369" spans="6:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="1369" spans="6:20" ht="38.4" x14ac:dyDescent="0.3">
       <c r="F1369" s="5" t="s">
         <v>1373</v>
       </c>
@@ -30165,7 +30177,7 @@
         <v>4860</v>
       </c>
     </row>
-    <row r="1370" spans="6:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="1370" spans="6:20" ht="38.4" x14ac:dyDescent="0.3">
       <c r="F1370" s="5" t="s">
         <v>1374</v>
       </c>
@@ -31331,7 +31343,7 @@
         <v>4826</v>
       </c>
     </row>
-    <row r="1476" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="1476" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F1476" s="5" t="s">
         <v>1480</v>
       </c>
@@ -31419,7 +31431,7 @@
         <v>4826</v>
       </c>
     </row>
-    <row r="1484" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="1484" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F1484" s="5" t="s">
         <v>1488</v>
       </c>
@@ -34026,7 +34038,7 @@
         <v>4824</v>
       </c>
     </row>
-    <row r="1721" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="1721" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F1721" s="5" t="s">
         <v>1725</v>
       </c>
@@ -34037,7 +34049,7 @@
         <v>4824</v>
       </c>
     </row>
-    <row r="1722" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="1722" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F1722" s="5" t="s">
         <v>1726</v>
       </c>
@@ -34147,7 +34159,7 @@
         <v>4827</v>
       </c>
     </row>
-    <row r="1732" spans="6:20" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="1732" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F1732" s="5" t="s">
         <v>1736</v>
       </c>
@@ -35027,7 +35039,7 @@
         <v>4826</v>
       </c>
     </row>
-    <row r="1812" spans="6:20" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="1812" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F1812" s="5" t="s">
         <v>1815</v>
       </c>
@@ -36413,7 +36425,7 @@
         <v>4824</v>
       </c>
     </row>
-    <row r="1938" spans="6:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="1938" spans="6:20" ht="38.4" x14ac:dyDescent="0.3">
       <c r="F1938" s="5" t="s">
         <v>1941</v>
       </c>
@@ -36479,7 +36491,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="1944" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1944" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F1944" s="5" t="s">
         <v>1947</v>
       </c>
@@ -40890,7 +40902,7 @@
         <v>4826</v>
       </c>
     </row>
-    <row r="2345" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2345" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F2345" s="5" t="s">
         <v>2347</v>
       </c>
@@ -41297,7 +41309,7 @@
         <v>4829</v>
       </c>
     </row>
-    <row r="2382" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="2382" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F2382" s="5" t="s">
         <v>2384</v>
       </c>
@@ -42452,7 +42464,7 @@
         <v>4824</v>
       </c>
     </row>
-    <row r="2487" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="2487" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F2487" s="5" t="s">
         <v>2489</v>
       </c>
@@ -43266,7 +43278,7 @@
         <v>4866</v>
       </c>
     </row>
-    <row r="2561" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2561" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F2561" s="5" t="s">
         <v>2563</v>
       </c>
@@ -43288,7 +43300,7 @@
         <v>4834</v>
       </c>
     </row>
-    <row r="2563" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2563" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F2563" s="5" t="s">
         <v>2565</v>
       </c>
@@ -43299,7 +43311,7 @@
         <v>4866</v>
       </c>
     </row>
-    <row r="2564" spans="6:20" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="2564" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F2564" s="5" t="s">
         <v>2566</v>
       </c>
@@ -44630,7 +44642,7 @@
         <v>4827</v>
       </c>
     </row>
-    <row r="2685" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2685" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F2685" s="5" t="s">
         <v>2687</v>
       </c>
@@ -47083,7 +47095,7 @@
         <v>4826</v>
       </c>
     </row>
-    <row r="2908" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2908" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F2908" s="5" t="s">
         <v>2910</v>
       </c>
@@ -47633,7 +47645,7 @@
         <v>4823</v>
       </c>
     </row>
-    <row r="2958" spans="6:20" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="2958" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F2958" s="5" t="s">
         <v>2960</v>
       </c>
@@ -48304,7 +48316,7 @@
         <v>4826</v>
       </c>
     </row>
-    <row r="3019" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3019" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F3019" s="5" t="s">
         <v>3020</v>
       </c>
@@ -50196,7 +50208,7 @@
         <v>4824</v>
       </c>
     </row>
-    <row r="3191" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3191" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F3191" s="5" t="s">
         <v>3192</v>
       </c>
@@ -50207,7 +50219,7 @@
         <v>4826</v>
       </c>
     </row>
-    <row r="3192" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3192" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F3192" s="5" t="s">
         <v>3193</v>
       </c>
@@ -51956,7 +51968,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="3351" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="3351" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F3351" s="5" t="s">
         <v>3352</v>
       </c>
@@ -54640,7 +54652,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="3595" spans="6:20" ht="48" x14ac:dyDescent="0.3">
+    <row r="3595" spans="6:20" ht="38.4" x14ac:dyDescent="0.3">
       <c r="F3595" s="5" t="s">
         <v>3596</v>
       </c>
@@ -60360,7 +60372,7 @@
         <v>4826</v>
       </c>
     </row>
-    <row r="4115" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="4115" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F4115" s="5" t="s">
         <v>4116</v>
       </c>
@@ -60899,7 +60911,7 @@
         <v>4826</v>
       </c>
     </row>
-    <row r="4164" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="4164" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F4164" s="5" t="s">
         <v>4165</v>
       </c>
@@ -61328,7 +61340,7 @@
         <v>4826</v>
       </c>
     </row>
-    <row r="4203" spans="6:20" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="4203" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F4203" s="5" t="s">
         <v>4204</v>
       </c>
@@ -63484,7 +63496,7 @@
         <v>4826</v>
       </c>
     </row>
-    <row r="4399" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="4399" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F4399" s="5" t="s">
         <v>4400</v>
       </c>
@@ -63660,7 +63672,7 @@
         <v>4826</v>
       </c>
     </row>
-    <row r="4415" spans="6:20" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="4415" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F4415" s="5" t="s">
         <v>4416</v>
       </c>
@@ -63968,7 +63980,7 @@
         <v>4826</v>
       </c>
     </row>
-    <row r="4443" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="4443" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F4443" s="5" t="s">
         <v>4444</v>
       </c>
@@ -64265,7 +64277,7 @@
         <v>4826</v>
       </c>
     </row>
-    <row r="4470" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4470" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F4470" s="5" t="s">
         <v>4471</v>
       </c>
@@ -64969,7 +64981,7 @@
         <v>4839</v>
       </c>
     </row>
-    <row r="4534" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4534" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F4534" s="5" t="s">
         <v>4535</v>
       </c>
@@ -65750,7 +65762,7 @@
         <v>4824</v>
       </c>
     </row>
-    <row r="4605" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4605" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F4605" s="5" t="s">
         <v>4606</v>
       </c>
@@ -66839,7 +66851,7 @@
         <v>4826</v>
       </c>
     </row>
-    <row r="4704" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="4704" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F4704" s="5" t="s">
         <v>4705</v>
       </c>
@@ -66861,7 +66873,7 @@
         <v>4826</v>
       </c>
     </row>
-    <row r="4706" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="4706" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F4706" s="5" t="s">
         <v>4707</v>
       </c>
@@ -67433,7 +67445,7 @@
         <v>4829</v>
       </c>
     </row>
-    <row r="4758" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4758" spans="6:20" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F4758" s="5" t="s">
         <v>4759</v>
       </c>
